--- a/farmServer/config/Order.xlsx
+++ b/farmServer/config/Order.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davion\Desktop\表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Files\Farm\豆瓜配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+  <si>
+    <t>西蒙的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_500|0_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001_1|2002_1|2002_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鹏的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_250|0_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔壁老王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002_5|2004_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1000|0_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_50|0_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20_40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午吃什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003_2|2004_2|1001_10|2001_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>OrderID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,87 +126,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>stuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LvRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙的订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_500|0_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001_1|2002_1|2002_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王鹏的订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2004_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_250|0_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔壁老王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2002_5|2004_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1000|0_100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幼儿园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_50|0_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20_40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中午吃什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2003_2|2004_2|1001_10|2001_5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G19" sqref="G18:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -458,108 +478,126 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>10000</v>
+      <c r="A2" t="s">
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
+        <v>10003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>10004</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B7" t="s">
         <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>